--- a/documentacao/Tecnologia da Informação/Metodologia Scrum v3.xlsx
+++ b/documentacao/Tecnologia da Informação/Metodologia Scrum v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\pasta\sdpiar\documentacao\Tecnologia da Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -1311,12 +1311,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1326,12 +1329,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1341,32 +1368,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,59 +1407,56 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2030,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2331,7 @@
       <c r="A21" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="35" t="s">
@@ -2340,7 +2340,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="13" t="s">
         <v>183</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="A34" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -2480,7 +2480,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="55"/>
-      <c r="B35" s="56"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="13" t="s">
         <v>190</v>
       </c>
@@ -2546,11 +2546,11 @@
       <c r="C42" s="21"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -2562,11 +2562,11 @@
       <c r="C44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="58" t="s">
+      <c r="E44" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
@@ -2675,10 +2675,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="61" t="s">
+      <c r="A53" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="56" t="s">
         <v>201</v>
       </c>
       <c r="C53" s="13" t="s">
@@ -2697,8 +2697,8 @@
       <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="61"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="13" t="s">
         <v>202</v>
       </c>
@@ -3226,27 +3226,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A43:C43"/>
     <mergeCell ref="E51:G51"/>
     <mergeCell ref="E67:G67"/>
     <mergeCell ref="A98:C98"/>
@@ -3263,6 +3242,27 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3283,434 +3283,475 @@
       <c r="B3" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="72" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="69" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="62" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="62" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>3</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="62" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>4</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="62" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>5</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="62" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>6</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="62" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>7</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="62" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>8</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="62" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>9</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="62" t="s">
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>10</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="67" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>11</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="68" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="C9:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="C16:E18"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
     <mergeCell ref="C5:E7"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:P5"/>
@@ -3727,47 +3768,6 @@
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="F10:K10"/>
     <mergeCell ref="L7:P7"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="C16:E18"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="C9:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="F12:K12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3788,35 +3788,35 @@
       <c r="B4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68" t="s">
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68" t="s">
+      <c r="J4" s="66"/>
+      <c r="K4" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68" t="s">
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
       <c r="V4" s="18" t="s">
         <v>116</v>
       </c>
@@ -3835,64 +3835,64 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="75">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="76">
         <v>5</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="71">
+      <c r="J6" s="78"/>
+      <c r="K6" s="64">
         <v>20</v>
       </c>
-      <c r="L6" s="71"/>
-      <c r="M6" s="68">
+      <c r="L6" s="64"/>
+      <c r="M6" s="66">
         <v>5</v>
       </c>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68" t="s">
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
       <c r="V6" s="24"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -3903,29 +3903,29 @@
       <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="68">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="66">
         <v>8</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68" t="s">
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="24"/>
@@ -3936,29 +3936,29 @@
       <c r="B8" s="17">
         <v>3</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="68">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="66">
         <v>7</v>
       </c>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68" t="s">
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="24"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -3967,25 +3967,25 @@
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="25"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -3996,35 +3996,35 @@
       <c r="B10" s="17">
         <v>4</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="75">
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="76">
         <v>4</v>
       </c>
-      <c r="J10" s="77"/>
-      <c r="K10" s="71">
+      <c r="J10" s="78"/>
+      <c r="K10" s="64">
         <v>10</v>
       </c>
-      <c r="L10" s="71"/>
-      <c r="M10" s="68">
+      <c r="L10" s="64"/>
+      <c r="M10" s="66">
         <v>2</v>
       </c>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68" t="s">
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -4035,29 +4035,29 @@
       <c r="B11" s="17">
         <v>5</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="68">
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="66">
         <v>4</v>
       </c>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68" t="s">
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -4068,29 +4068,29 @@
       <c r="B12" s="17">
         <v>6</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="68">
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="66">
         <v>4</v>
       </c>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68" t="s">
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -4100,24 +4100,24 @@
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
       <c r="K13" s="88"/>
-      <c r="L13" s="90"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="88"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -4128,35 +4128,35 @@
       <c r="B14" s="17">
         <v>7</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="75">
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="76">
         <v>5</v>
       </c>
-      <c r="J14" s="77"/>
-      <c r="K14" s="75">
+      <c r="J14" s="78"/>
+      <c r="K14" s="76">
         <v>8</v>
       </c>
-      <c r="L14" s="77"/>
-      <c r="M14" s="84">
+      <c r="L14" s="78"/>
+      <c r="M14" s="85">
         <v>4</v>
       </c>
-      <c r="N14" s="85"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="68" t="s">
+      <c r="N14" s="86"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="24"/>
@@ -4167,29 +4167,29 @@
       <c r="B15" s="17">
         <v>8</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="84">
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="85">
         <v>4</v>
       </c>
-      <c r="N15" s="85"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="68" t="s">
+      <c r="N15" s="86"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="24"/>
@@ -4199,24 +4199,24 @@
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="25"/>
       <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="88"/>
-      <c r="L16" s="90"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="88"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -4227,35 +4227,35 @@
       <c r="B17" s="17">
         <v>9</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="75">
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="76">
         <v>3</v>
       </c>
-      <c r="J17" s="77"/>
-      <c r="K17" s="75">
+      <c r="J17" s="78"/>
+      <c r="K17" s="76">
         <v>14</v>
       </c>
-      <c r="L17" s="77"/>
-      <c r="M17" s="84">
+      <c r="L17" s="78"/>
+      <c r="M17" s="85">
         <v>6</v>
       </c>
-      <c r="N17" s="85"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="68" t="s">
+      <c r="N17" s="86"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="27"/>
@@ -4266,29 +4266,29 @@
       <c r="B18" s="17">
         <v>10</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="84">
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="85">
         <v>2</v>
       </c>
-      <c r="N18" s="85"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="87" t="s">
+      <c r="N18" s="86"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="24"/>
@@ -4299,29 +4299,29 @@
       <c r="B19" s="17">
         <v>11</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="84">
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="85">
         <v>6</v>
       </c>
-      <c r="N19" s="85"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="68" t="s">
+      <c r="N19" s="86"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="24"/>
@@ -4338,41 +4338,41 @@
       <c r="B24" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68" t="s">
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68" t="s">
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68" t="s">
+      <c r="N24" s="66"/>
+      <c r="O24" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68" t="s">
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68" t="s">
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
       <c r="Z24" s="20" t="s">
         <v>116</v>
       </c>
@@ -4391,74 +4391,74 @@
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="25"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="73"/>
-      <c r="AC25" s="73"/>
-      <c r="AD25" s="73"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="19">
         <v>1</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="91" t="s">
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="75">
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="76">
         <v>5</v>
       </c>
-      <c r="N26" s="77"/>
-      <c r="O26" s="71">
+      <c r="N26" s="78"/>
+      <c r="O26" s="64">
         <v>20</v>
       </c>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="68">
+      <c r="P26" s="64"/>
+      <c r="Q26" s="66">
         <v>5</v>
       </c>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68" t="s">
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -4469,33 +4469,33 @@
       <c r="B27" s="19">
         <v>2</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="68">
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="66">
         <v>8</v>
       </c>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68" t="s">
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="68"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="24"/>
@@ -4506,33 +4506,33 @@
       <c r="B28" s="19">
         <v>3</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="68">
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="66">
         <v>7</v>
       </c>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68" t="s">
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
       <c r="Z28" s="24"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -4541,29 +4541,29 @@
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" s="25"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="68"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -4574,41 +4574,41 @@
       <c r="B30" s="19">
         <v>4</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71" t="s">
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="75">
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="76">
         <v>4</v>
       </c>
-      <c r="N30" s="77"/>
-      <c r="O30" s="71">
+      <c r="N30" s="78"/>
+      <c r="O30" s="64">
         <v>10</v>
       </c>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="68">
+      <c r="P30" s="64"/>
+      <c r="Q30" s="66">
         <v>2</v>
       </c>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68" t="s">
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -4619,33 +4619,33 @@
       <c r="B31" s="19">
         <v>5</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="68">
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="66">
         <v>4</v>
       </c>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68" t="s">
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
@@ -4656,33 +4656,33 @@
       <c r="B32" s="19">
         <v>6</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="68">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="66">
         <v>4</v>
       </c>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68" t="s">
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -4692,28 +4692,28 @@
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="25"/>
       <c r="C33" s="88"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
       <c r="O33" s="88"/>
-      <c r="P33" s="90"/>
+      <c r="P33" s="89"/>
       <c r="Q33" s="88"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -4724,41 +4724,41 @@
       <c r="B34" s="19">
         <v>7</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="91" t="s">
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="75">
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="76">
         <v>5</v>
       </c>
-      <c r="N34" s="77"/>
-      <c r="O34" s="75">
+      <c r="N34" s="78"/>
+      <c r="O34" s="76">
         <v>8</v>
       </c>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="84">
+      <c r="P34" s="78"/>
+      <c r="Q34" s="85">
         <v>4</v>
       </c>
-      <c r="R34" s="85"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="68" t="s">
+      <c r="R34" s="86"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="24"/>
@@ -4769,33 +4769,33 @@
       <c r="B35" s="19">
         <v>8</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="84">
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="85">
         <v>4</v>
       </c>
-      <c r="R35" s="85"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="68" t="s">
+      <c r="R35" s="86"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="24"/>
@@ -4805,28 +4805,28 @@
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B36" s="25"/>
       <c r="C36" s="88"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
       <c r="O36" s="88"/>
-      <c r="P36" s="90"/>
+      <c r="P36" s="89"/>
       <c r="Q36" s="88"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="73"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -4837,41 +4837,41 @@
       <c r="B37" s="19">
         <v>9</v>
       </c>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="91" t="s">
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="75">
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="76">
         <v>3</v>
       </c>
-      <c r="N37" s="77"/>
-      <c r="O37" s="75">
+      <c r="N37" s="78"/>
+      <c r="O37" s="76">
         <v>14</v>
       </c>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="84">
+      <c r="P37" s="78"/>
+      <c r="Q37" s="85">
         <v>6</v>
       </c>
-      <c r="R37" s="85"/>
-      <c r="S37" s="86"/>
-      <c r="T37" s="68" t="s">
+      <c r="R37" s="86"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="27"/>
@@ -4882,33 +4882,33 @@
       <c r="B38" s="19">
         <v>10</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="80"/>
-      <c r="Q38" s="84">
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="85">
         <v>2</v>
       </c>
-      <c r="R38" s="85"/>
-      <c r="S38" s="86"/>
-      <c r="T38" s="87" t="s">
+      <c r="R38" s="86"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="24"/>
@@ -4919,33 +4919,33 @@
       <c r="B39" s="19">
         <v>11</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="84">
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="85">
         <v>6</v>
       </c>
-      <c r="R39" s="85"/>
-      <c r="S39" s="86"/>
-      <c r="T39" s="68" t="s">
+      <c r="R39" s="86"/>
+      <c r="S39" s="87"/>
+      <c r="T39" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="68"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="24"/>
@@ -4954,15 +4954,102 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L35"/>
-    <mergeCell ref="I37:L39"/>
-    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="C37:H39"/>
+    <mergeCell ref="M37:N39"/>
+    <mergeCell ref="O37:P39"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="C34:H35"/>
+    <mergeCell ref="M34:N35"/>
+    <mergeCell ref="O34:P35"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L8"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="C30:H32"/>
+    <mergeCell ref="M30:N32"/>
+    <mergeCell ref="O30:P32"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="C26:H28"/>
+    <mergeCell ref="M26:N28"/>
+    <mergeCell ref="O26:P28"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C6:H8"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K10:L12"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P16:U16"/>
+    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="P10:U10"/>
     <mergeCell ref="C17:H19"/>
     <mergeCell ref="K17:L19"/>
     <mergeCell ref="M17:O17"/>
@@ -4987,102 +5074,15 @@
     <mergeCell ref="P11:U11"/>
     <mergeCell ref="P12:U12"/>
     <mergeCell ref="P13:U13"/>
-    <mergeCell ref="P16:U16"/>
-    <mergeCell ref="P15:U15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C6:H8"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K10:L12"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P14:U14"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="C26:H28"/>
-    <mergeCell ref="M26:N28"/>
-    <mergeCell ref="O26:P28"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L8"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="C30:H32"/>
-    <mergeCell ref="M30:N32"/>
-    <mergeCell ref="O30:P32"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:Y31"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="C34:H35"/>
-    <mergeCell ref="M34:N35"/>
-    <mergeCell ref="O34:P35"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="C37:H39"/>
-    <mergeCell ref="M37:N39"/>
-    <mergeCell ref="O37:P39"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L35"/>
+    <mergeCell ref="I37:L39"/>
+    <mergeCell ref="I36:L36"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5092,7 +5092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:AD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -5102,41 +5102,41 @@
       <c r="B6" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68" t="s">
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68" t="s">
+      <c r="N6" s="66"/>
+      <c r="O6" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68" t="s">
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68" t="s">
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
       <c r="Z6" s="52" t="s">
         <v>116</v>
       </c>
@@ -5155,74 +5155,74 @@
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="25"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
     </row>
     <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="51">
         <v>1</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="91" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="71">
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="64">
         <v>5</v>
       </c>
-      <c r="N8" s="71"/>
-      <c r="O8" s="97" t="s">
+      <c r="N8" s="64"/>
+      <c r="O8" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="96" t="s">
+      <c r="P8" s="64"/>
+      <c r="Q8" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68" t="s">
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="24"/>
@@ -5233,33 +5233,33 @@
       <c r="B9" s="51">
         <v>2</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="96" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68" t="s">
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="24"/>
@@ -5270,33 +5270,33 @@
       <c r="B10" s="51">
         <v>3</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="96" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68" t="s">
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="24"/>
@@ -5307,33 +5307,33 @@
       <c r="B11" s="51">
         <v>4</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="96" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68" t="s">
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="24"/>
@@ -5344,33 +5344,33 @@
       <c r="B12" s="51">
         <v>5</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="96" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68" t="s">
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="24"/>
@@ -5381,33 +5381,33 @@
       <c r="B13" s="51">
         <v>6</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="96" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68" t="s">
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="24"/>
@@ -5418,33 +5418,33 @@
       <c r="B14" s="51">
         <v>7</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="96" t="s">
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68" t="s">
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="24"/>
@@ -5455,33 +5455,33 @@
       <c r="B15" s="51">
         <v>8</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="96" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68" t="s">
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="24"/>
@@ -5492,33 +5492,33 @@
       <c r="B16" s="51">
         <v>9</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="96" t="s">
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68" t="s">
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="24"/>
@@ -5529,33 +5529,33 @@
       <c r="B17" s="51">
         <v>10</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="96" t="s">
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68" t="s">
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="24"/>
@@ -5566,33 +5566,33 @@
       <c r="B18" s="51">
         <v>11</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="96" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68" t="s">
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="24"/>
@@ -5603,33 +5603,33 @@
       <c r="B19" s="51">
         <v>12</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="96" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68" t="s">
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="24"/>
@@ -5640,173 +5640,173 @@
       <c r="B20" s="51">
         <v>13</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="75" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="76" t="s">
         <v>258</v>
       </c>
-      <c r="R20" s="76"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="87" t="s">
+      <c r="R20" s="77"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="102"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="97"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="51">
         <v>14</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="103"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="98"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="51">
         <v>15</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="75" t="s">
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="76" t="s">
         <v>258</v>
       </c>
-      <c r="R22" s="76"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="87" t="s">
+      <c r="R22" s="77"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="91" t="s">
         <v>250</v>
       </c>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="100"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="51">
         <v>16</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="99"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="93"/>
+      <c r="AD23" s="93"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="51">
         <v>17</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="68" t="s">
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68" t="s">
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
       <c r="Z24" s="24"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -5817,173 +5817,173 @@
       <c r="B25" s="51">
         <v>18</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="75" t="s">
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="R25" s="76"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="87" t="s">
+      <c r="R25" s="77"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="100"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="92"/>
+      <c r="AD25" s="94"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="51">
         <v>19</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="101"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="91"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="95"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="51">
         <v>20</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="75" t="s">
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="R27" s="76"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="87" t="s">
+      <c r="R27" s="77"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="98"/>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="100"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="94"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="51">
         <v>21</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="99"/>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="101"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="95"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" s="51">
         <v>22</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="68" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68" t="s">
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="24"/>
@@ -5994,33 +5994,33 @@
       <c r="B30" s="51">
         <v>23</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="68" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68" t="s">
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="24"/>
@@ -6031,33 +6031,33 @@
       <c r="B31" s="51">
         <v>24</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="68" t="s">
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68" t="s">
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
@@ -6068,33 +6068,33 @@
       <c r="B32" s="51">
         <v>25</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="68" t="s">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68" t="s">
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -6103,29 +6103,29 @@
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="25"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -6136,41 +6136,41 @@
       <c r="B34" s="51">
         <v>26</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="91" t="s">
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="71">
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="64">
         <v>4</v>
       </c>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71">
+      <c r="N34" s="64"/>
+      <c r="O34" s="64">
         <v>10</v>
       </c>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="68" t="s">
+      <c r="P34" s="64"/>
+      <c r="Q34" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68" t="s">
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -6181,33 +6181,33 @@
       <c r="B35" s="51">
         <v>27</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="68" t="s">
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68" t="s">
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="24"/>
@@ -6218,33 +6218,33 @@
       <c r="B36" s="51">
         <v>28</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="68" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68" t="s">
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -6255,33 +6255,33 @@
       <c r="B37" s="51">
         <v>29</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="68" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68" t="s">
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="24"/>
@@ -6291,28 +6291,28 @@
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="25"/>
       <c r="C38" s="88"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
       <c r="O38" s="88"/>
-      <c r="P38" s="90"/>
+      <c r="P38" s="89"/>
       <c r="Q38" s="88"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="73"/>
-      <c r="V38" s="73"/>
-      <c r="W38" s="73"/>
-      <c r="X38" s="73"/>
-      <c r="Y38" s="73"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -6323,41 +6323,41 @@
       <c r="B39" s="51">
         <v>30</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="91" t="s">
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="71">
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="64">
         <v>5</v>
       </c>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71" t="s">
+      <c r="N39" s="64"/>
+      <c r="O39" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="68" t="s">
+      <c r="P39" s="64"/>
+      <c r="Q39" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68" t="s">
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="68"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
       <c r="Z39" s="24"/>
       <c r="AA39" s="24"/>
       <c r="AB39" s="24"/>
@@ -6368,33 +6368,33 @@
       <c r="B40" s="51">
         <v>31</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="68" t="s">
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68" t="s">
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="68"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
       <c r="Z40" s="24"/>
       <c r="AA40" s="24"/>
       <c r="AB40" s="24"/>
@@ -6404,28 +6404,28 @@
     <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="88"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
       <c r="O41" s="88"/>
-      <c r="P41" s="90"/>
+      <c r="P41" s="89"/>
       <c r="Q41" s="88"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="73"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="73"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -6436,41 +6436,41 @@
       <c r="B42" s="51">
         <v>32</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="91" t="s">
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="71">
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="64">
         <v>3</v>
       </c>
-      <c r="N42" s="71"/>
-      <c r="O42" s="104" t="s">
+      <c r="N42" s="64"/>
+      <c r="O42" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="68" t="s">
+      <c r="P42" s="64"/>
+      <c r="Q42" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68" t="s">
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="U42" s="68"/>
-      <c r="V42" s="68"/>
-      <c r="W42" s="68"/>
-      <c r="X42" s="68"/>
-      <c r="Y42" s="68"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="24"/>
@@ -6481,103 +6481,103 @@
       <c r="B43" s="51">
         <v>33</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="75" t="s">
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="R43" s="76"/>
-      <c r="S43" s="77"/>
-      <c r="T43" s="87" t="s">
+      <c r="R43" s="77"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="U43" s="87"/>
-      <c r="V43" s="87"/>
-      <c r="W43" s="87"/>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="87"/>
-      <c r="Z43" s="98"/>
-      <c r="AA43" s="98"/>
-      <c r="AB43" s="100"/>
-      <c r="AC43" s="100"/>
-      <c r="AD43" s="98"/>
+      <c r="U43" s="91"/>
+      <c r="V43" s="91"/>
+      <c r="W43" s="91"/>
+      <c r="X43" s="91"/>
+      <c r="Y43" s="91"/>
+      <c r="Z43" s="92"/>
+      <c r="AA43" s="92"/>
+      <c r="AB43" s="94"/>
+      <c r="AC43" s="94"/>
+      <c r="AD43" s="92"/>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B44" s="51">
         <v>34</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="83"/>
-      <c r="T44" s="87"/>
-      <c r="U44" s="87"/>
-      <c r="V44" s="87"/>
-      <c r="W44" s="87"/>
-      <c r="X44" s="87"/>
-      <c r="Y44" s="87"/>
-      <c r="Z44" s="99"/>
-      <c r="AA44" s="99"/>
-      <c r="AB44" s="101"/>
-      <c r="AC44" s="101"/>
-      <c r="AD44" s="99"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="84"/>
+      <c r="T44" s="91"/>
+      <c r="U44" s="91"/>
+      <c r="V44" s="91"/>
+      <c r="W44" s="91"/>
+      <c r="X44" s="91"/>
+      <c r="Y44" s="91"/>
+      <c r="Z44" s="93"/>
+      <c r="AA44" s="93"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="93"/>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B45" s="51">
         <v>35</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="68" t="s">
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="R45" s="68"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="68" t="s">
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
-      <c r="W45" s="68"/>
-      <c r="X45" s="68"/>
-      <c r="Y45" s="68"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
@@ -6588,33 +6588,33 @@
       <c r="B46" s="51">
         <v>36</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="91"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="68" t="s">
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="R46" s="68"/>
-      <c r="S46" s="68"/>
-      <c r="T46" s="68" t="s">
+      <c r="R46" s="66"/>
+      <c r="S46" s="66"/>
+      <c r="T46" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="U46" s="68"/>
-      <c r="V46" s="68"/>
-      <c r="W46" s="68"/>
-      <c r="X46" s="68"/>
-      <c r="Y46" s="68"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="66"/>
+      <c r="W46" s="66"/>
+      <c r="X46" s="66"/>
+      <c r="Y46" s="66"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -6623,77 +6623,42 @@
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="Q43:S44"/>
-    <mergeCell ref="C42:H46"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T43:Y44"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="O42:P46"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="Q27:S28"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="Q22:S23"/>
-    <mergeCell ref="Q25:S26"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="I8:L32"/>
-    <mergeCell ref="M8:N32"/>
-    <mergeCell ref="O8:P32"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="T31:Y31"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="T25:Y26"/>
-    <mergeCell ref="T27:Y28"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y21"/>
-    <mergeCell ref="T22:Y23"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="M42:N46"/>
+    <mergeCell ref="I42:L46"/>
+    <mergeCell ref="I34:L37"/>
+    <mergeCell ref="C34:H37"/>
+    <mergeCell ref="M34:N37"/>
+    <mergeCell ref="O34:P37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="C39:H40"/>
+    <mergeCell ref="I39:L40"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:Y7"/>
     <mergeCell ref="C8:H32"/>
     <mergeCell ref="Q20:S21"/>
     <mergeCell ref="T6:Y6"/>
@@ -6714,49 +6679,84 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:Y7"/>
     <mergeCell ref="Q33:S33"/>
     <mergeCell ref="T33:Y33"/>
     <mergeCell ref="Q34:S34"/>
     <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y21"/>
+    <mergeCell ref="T22:Y23"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="I8:L32"/>
+    <mergeCell ref="M8:N32"/>
+    <mergeCell ref="O8:P32"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="Q27:S28"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="Q22:S23"/>
+    <mergeCell ref="Q25:S26"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="T25:Y26"/>
+    <mergeCell ref="T27:Y28"/>
     <mergeCell ref="Q35:S35"/>
     <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="I34:L37"/>
-    <mergeCell ref="C34:H37"/>
-    <mergeCell ref="M34:N37"/>
-    <mergeCell ref="O34:P37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="C39:H40"/>
-    <mergeCell ref="I39:L40"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O39:P40"/>
-    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="Q43:S44"/>
+    <mergeCell ref="C42:H46"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T43:Y44"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="O42:P46"/>
     <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="M42:N46"/>
-    <mergeCell ref="I42:L46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6773,218 +6773,229 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93" t="s">
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93" t="s">
+      <c r="G3" s="101"/>
+      <c r="H3" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93" t="s">
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="94">
+      <c r="F5" s="102">
         <v>3</v>
       </c>
-      <c r="G5" s="94"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="I5" s="92" t="s">
+      <c r="I5" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
       <c r="S5" s="30"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="94">
+      <c r="F6" s="102">
         <v>3</v>
       </c>
-      <c r="G6" s="94"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
       <c r="S6" s="30" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="71">
         <v>2</v>
       </c>
-      <c r="G7" s="69"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
       <c r="S7" s="30" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="102">
         <v>3</v>
       </c>
-      <c r="G8" s="94"/>
+      <c r="G8" s="102"/>
       <c r="H8" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
       <c r="S8" s="30"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="102">
         <v>3</v>
       </c>
-      <c r="G9" s="94"/>
+      <c r="G9" s="102"/>
       <c r="H9" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
       <c r="S9" s="30" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I3:R4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
@@ -6995,17 +7006,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="I3:R4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/documentacao/Tecnologia da Informação/Metodologia Scrum v3.xlsx
+++ b/documentacao/Tecnologia da Informação/Metodologia Scrum v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="270">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -808,9 +808,6 @@
     <t>Conectar a página de Login de usuário com o banco de dados</t>
   </si>
   <si>
-    <t>12h</t>
-  </si>
-  <si>
     <t>Documentação</t>
   </si>
   <si>
@@ -866,6 +863,9 @@
   </si>
   <si>
     <t>Fazer a modelagem Lógica do banco de dados</t>
+  </si>
+  <si>
+    <t>13h</t>
   </si>
 </sst>
 </file>
@@ -1412,6 +1412,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1444,15 +1453,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2056,7 +2056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -3919,8 +3919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AD39"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5233,8 +5233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:AK49"/>
   <sheetViews>
-    <sheetView topLeftCell="G18" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+    <sheetView topLeftCell="B5" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38:Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5361,11 +5361,11 @@
         <v>5</v>
       </c>
       <c r="N8" s="87"/>
-      <c r="O8" s="109" t="s">
+      <c r="O8" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="108" t="s">
+      <c r="P8" s="113"/>
+      <c r="Q8" s="111" t="s">
         <v>227</v>
       </c>
       <c r="R8" s="84"/>
@@ -5407,9 +5407,9 @@
       <c r="L9" s="107"/>
       <c r="M9" s="87"/>
       <c r="N9" s="87"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="108" t="s">
+      <c r="O9" s="114"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="111" t="s">
         <v>227</v>
       </c>
       <c r="R9" s="84"/>
@@ -5451,9 +5451,9 @@
       <c r="L10" s="107"/>
       <c r="M10" s="87"/>
       <c r="N10" s="87"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="108" t="s">
+      <c r="O10" s="114"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="111" t="s">
         <v>227</v>
       </c>
       <c r="R10" s="84"/>
@@ -5495,9 +5495,9 @@
       <c r="L11" s="107"/>
       <c r="M11" s="87"/>
       <c r="N11" s="87"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="108" t="s">
+      <c r="O11" s="114"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="111" t="s">
         <v>227</v>
       </c>
       <c r="R11" s="84"/>
@@ -5539,9 +5539,9 @@
       <c r="L12" s="107"/>
       <c r="M12" s="87"/>
       <c r="N12" s="87"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="108" t="s">
+      <c r="O12" s="114"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="111" t="s">
         <v>227</v>
       </c>
       <c r="R12" s="84"/>
@@ -5583,9 +5583,9 @@
       <c r="L13" s="107"/>
       <c r="M13" s="87"/>
       <c r="N13" s="87"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="108" t="s">
+      <c r="O13" s="114"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="111" t="s">
         <v>227</v>
       </c>
       <c r="R13" s="84"/>
@@ -5627,9 +5627,9 @@
       <c r="L14" s="107"/>
       <c r="M14" s="87"/>
       <c r="N14" s="87"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="108" t="s">
+      <c r="O14" s="114"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="111" t="s">
         <v>227</v>
       </c>
       <c r="R14" s="84"/>
@@ -5671,9 +5671,9 @@
       <c r="L15" s="107"/>
       <c r="M15" s="87"/>
       <c r="N15" s="87"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="108" t="s">
+      <c r="O15" s="114"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="111" t="s">
         <v>227</v>
       </c>
       <c r="R15" s="84"/>
@@ -5715,9 +5715,9 @@
       <c r="L16" s="107"/>
       <c r="M16" s="87"/>
       <c r="N16" s="87"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="108" t="s">
+      <c r="O16" s="114"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="111" t="s">
         <v>227</v>
       </c>
       <c r="R16" s="84"/>
@@ -5759,9 +5759,9 @@
       <c r="L17" s="107"/>
       <c r="M17" s="87"/>
       <c r="N17" s="87"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="108" t="s">
+      <c r="O17" s="114"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="111" t="s">
         <v>227</v>
       </c>
       <c r="R17" s="84"/>
@@ -5807,9 +5807,9 @@
         <v>5</v>
       </c>
       <c r="N18" s="87"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="108" t="s">
+      <c r="O18" s="114"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="111" t="s">
         <v>226</v>
       </c>
       <c r="R18" s="84"/>
@@ -5824,9 +5824,8 @@
       <c r="Y18" s="84"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="22"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
+      <c r="AD18" s="22"/>
       <c r="AE18" s="60"/>
       <c r="AF18" s="60"/>
       <c r="AG18" s="59"/>
@@ -5851,9 +5850,9 @@
       <c r="L19" s="107"/>
       <c r="M19" s="87"/>
       <c r="N19" s="87"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="108" t="s">
+      <c r="O19" s="114"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="111" t="s">
         <v>226</v>
       </c>
       <c r="R19" s="84"/>
@@ -5868,9 +5867,8 @@
       <c r="Y19" s="84"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="22"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
+      <c r="AD19" s="22"/>
       <c r="AE19" s="60"/>
       <c r="AF19" s="60"/>
       <c r="AG19" s="59"/>
@@ -5899,8 +5897,8 @@
         <v>4</v>
       </c>
       <c r="N20" s="87"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="112"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="115"/>
       <c r="Q20" s="87" t="s">
         <v>179</v>
       </c>
@@ -5914,11 +5912,11 @@
       <c r="W20" s="103"/>
       <c r="X20" s="103"/>
       <c r="Y20" s="103"/>
-      <c r="Z20" s="115"/>
+      <c r="Z20" s="118"/>
       <c r="AA20" s="69"/>
       <c r="AB20" s="69"/>
       <c r="AC20" s="69"/>
-      <c r="AD20" s="116"/>
+      <c r="AD20" s="119"/>
       <c r="AE20" s="60"/>
       <c r="AF20" s="60"/>
       <c r="AG20" s="59"/>
@@ -5943,8 +5941,8 @@
       <c r="L21" s="107"/>
       <c r="M21" s="87"/>
       <c r="N21" s="87"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="112"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="115"/>
       <c r="Q21" s="87"/>
       <c r="R21" s="87"/>
       <c r="S21" s="87"/>
@@ -5954,11 +5952,11 @@
       <c r="W21" s="103"/>
       <c r="X21" s="103"/>
       <c r="Y21" s="103"/>
-      <c r="Z21" s="115"/>
+      <c r="Z21" s="118"/>
       <c r="AA21" s="69"/>
       <c r="AB21" s="69"/>
       <c r="AC21" s="69"/>
-      <c r="AD21" s="116"/>
+      <c r="AD21" s="119"/>
       <c r="AE21" s="60"/>
       <c r="AF21" s="60"/>
       <c r="AG21" s="59"/>
@@ -5987,8 +5985,8 @@
         <v>4</v>
       </c>
       <c r="N22" s="87"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="112"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="115"/>
       <c r="Q22" s="87" t="s">
         <v>179</v>
       </c>
@@ -6004,7 +6002,7 @@
       <c r="Y22" s="103"/>
       <c r="Z22" s="69"/>
       <c r="AA22" s="69"/>
-      <c r="AB22" s="115"/>
+      <c r="AB22" s="118"/>
       <c r="AC22" s="69"/>
       <c r="AD22" s="69"/>
       <c r="AE22" s="60"/>
@@ -6031,8 +6029,8 @@
       <c r="L23" s="107"/>
       <c r="M23" s="87"/>
       <c r="N23" s="87"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="112"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="115"/>
       <c r="Q23" s="87"/>
       <c r="R23" s="87"/>
       <c r="S23" s="87"/>
@@ -6044,7 +6042,7 @@
       <c r="Y23" s="103"/>
       <c r="Z23" s="69"/>
       <c r="AA23" s="69"/>
-      <c r="AB23" s="115"/>
+      <c r="AB23" s="118"/>
       <c r="AC23" s="69"/>
       <c r="AD23" s="69"/>
       <c r="AE23" s="60"/>
@@ -6071,8 +6069,8 @@
       <c r="L24" s="107"/>
       <c r="M24" s="87"/>
       <c r="N24" s="87"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="112"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="115"/>
       <c r="Q24" s="84" t="s">
         <v>180</v>
       </c>
@@ -6119,8 +6117,8 @@
         <v>5</v>
       </c>
       <c r="N25" s="87"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="112"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="115"/>
       <c r="Q25" s="87" t="s">
         <v>181</v>
       </c>
@@ -6138,7 +6136,7 @@
       <c r="AA25" s="69"/>
       <c r="AB25" s="69"/>
       <c r="AC25" s="69"/>
-      <c r="AD25" s="115"/>
+      <c r="AD25" s="118"/>
       <c r="AE25" s="60"/>
       <c r="AF25" s="60"/>
       <c r="AG25" s="59"/>
@@ -6163,8 +6161,8 @@
       <c r="L26" s="107"/>
       <c r="M26" s="87"/>
       <c r="N26" s="87"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="112"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="115"/>
       <c r="Q26" s="87"/>
       <c r="R26" s="87"/>
       <c r="S26" s="87"/>
@@ -6178,7 +6176,7 @@
       <c r="AA26" s="69"/>
       <c r="AB26" s="69"/>
       <c r="AC26" s="69"/>
-      <c r="AD26" s="115"/>
+      <c r="AD26" s="118"/>
       <c r="AE26" s="60"/>
       <c r="AF26" s="60"/>
       <c r="AG26" s="59"/>
@@ -6203,8 +6201,8 @@
       <c r="L27" s="107"/>
       <c r="M27" s="87"/>
       <c r="N27" s="87"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="112"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="115"/>
       <c r="Q27" s="87" t="s">
         <v>181</v>
       </c>
@@ -6222,7 +6220,7 @@
       <c r="AA27" s="69"/>
       <c r="AB27" s="69"/>
       <c r="AC27" s="69"/>
-      <c r="AD27" s="115"/>
+      <c r="AD27" s="118"/>
       <c r="AE27" s="60"/>
       <c r="AF27" s="60"/>
       <c r="AG27" s="59"/>
@@ -6247,8 +6245,8 @@
       <c r="L28" s="107"/>
       <c r="M28" s="87"/>
       <c r="N28" s="87"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="112"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="115"/>
       <c r="Q28" s="87"/>
       <c r="R28" s="87"/>
       <c r="S28" s="87"/>
@@ -6262,7 +6260,7 @@
       <c r="AA28" s="69"/>
       <c r="AB28" s="69"/>
       <c r="AC28" s="69"/>
-      <c r="AD28" s="115"/>
+      <c r="AD28" s="118"/>
       <c r="AE28" s="60"/>
       <c r="AF28" s="60"/>
       <c r="AG28" s="59"/>
@@ -6287,8 +6285,8 @@
       <c r="L29" s="107"/>
       <c r="M29" s="87"/>
       <c r="N29" s="87"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="112"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="115"/>
       <c r="Q29" s="84" t="s">
         <v>180</v>
       </c>
@@ -6335,8 +6333,8 @@
         <v>4</v>
       </c>
       <c r="N30" s="87"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="112"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="115"/>
       <c r="Q30" s="84" t="s">
         <v>183</v>
       </c>
@@ -6379,8 +6377,8 @@
       <c r="L31" s="107"/>
       <c r="M31" s="87"/>
       <c r="N31" s="87"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="112"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="115"/>
       <c r="Q31" s="84" t="s">
         <v>182</v>
       </c>
@@ -6423,8 +6421,8 @@
       <c r="L32" s="107"/>
       <c r="M32" s="87"/>
       <c r="N32" s="87"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="114"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="117"/>
       <c r="Q32" s="84" t="s">
         <v>182</v>
       </c>
@@ -6500,12 +6498,12 @@
       <c r="F34" s="87"/>
       <c r="G34" s="87"/>
       <c r="H34" s="87"/>
-      <c r="I34" s="119" t="s">
+      <c r="I34" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="121"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="110"/>
       <c r="M34" s="87">
         <v>5</v>
       </c>
@@ -6549,12 +6547,12 @@
       <c r="F35" s="87"/>
       <c r="G35" s="87"/>
       <c r="H35" s="87"/>
-      <c r="I35" s="119" t="s">
+      <c r="I35" s="108" t="s">
         <v>231</v>
       </c>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="121"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="110"/>
       <c r="M35" s="87"/>
       <c r="N35" s="87"/>
       <c r="O35" s="87"/>
@@ -6594,12 +6592,12 @@
       <c r="F36" s="87"/>
       <c r="G36" s="87"/>
       <c r="H36" s="87"/>
-      <c r="I36" s="119" t="s">
+      <c r="I36" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="121"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="110"/>
       <c r="M36" s="87"/>
       <c r="N36" s="87"/>
       <c r="O36" s="87"/>
@@ -6639,12 +6637,12 @@
       <c r="F37" s="87"/>
       <c r="G37" s="87"/>
       <c r="H37" s="87"/>
-      <c r="I37" s="119" t="s">
+      <c r="I37" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="121"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="110"/>
       <c r="M37" s="87"/>
       <c r="N37" s="87"/>
       <c r="O37" s="87"/>
@@ -6723,12 +6721,12 @@
       <c r="F39" s="87"/>
       <c r="G39" s="87"/>
       <c r="H39" s="87"/>
-      <c r="I39" s="119" t="s">
+      <c r="I39" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="J39" s="120"/>
-      <c r="K39" s="120"/>
-      <c r="L39" s="121"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="110"/>
       <c r="M39" s="87">
         <v>5</v>
       </c>
@@ -6772,12 +6770,12 @@
       <c r="F40" s="87"/>
       <c r="G40" s="87"/>
       <c r="H40" s="87"/>
-      <c r="I40" s="119" t="s">
+      <c r="I40" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="121"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="110"/>
       <c r="M40" s="87"/>
       <c r="N40" s="87"/>
       <c r="O40" s="87"/>
@@ -6860,7 +6858,7 @@
         <v>3</v>
       </c>
       <c r="N42" s="87"/>
-      <c r="O42" s="118" t="s">
+      <c r="O42" s="121" t="s">
         <v>199</v>
       </c>
       <c r="P42" s="87"/>
@@ -6916,8 +6914,8 @@
       <c r="Y43" s="103"/>
       <c r="Z43" s="69"/>
       <c r="AA43" s="69"/>
-      <c r="AB43" s="115"/>
-      <c r="AC43" s="115"/>
+      <c r="AB43" s="118"/>
+      <c r="AC43" s="118"/>
       <c r="AD43" s="69"/>
     </row>
     <row r="44" spans="2:37" x14ac:dyDescent="0.25">
@@ -6949,8 +6947,8 @@
       <c r="Y44" s="103"/>
       <c r="Z44" s="69"/>
       <c r="AA44" s="69"/>
-      <c r="AB44" s="115"/>
-      <c r="AC44" s="115"/>
+      <c r="AB44" s="118"/>
+      <c r="AC44" s="118"/>
       <c r="AD44" s="69"/>
     </row>
     <row r="45" spans="2:37" x14ac:dyDescent="0.25">
@@ -7008,11 +7006,11 @@
       <c r="N46" s="87"/>
       <c r="O46" s="87"/>
       <c r="P46" s="87"/>
-      <c r="Q46" s="117" t="s">
+      <c r="Q46" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="R46" s="117"/>
-      <c r="S46" s="117"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="120"/>
       <c r="T46" s="84" t="s">
         <v>192</v>
       </c>
@@ -7076,15 +7074,6 @@
     <mergeCell ref="AC27:AC28"/>
     <mergeCell ref="AD27:AD28"/>
     <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
     <mergeCell ref="Z20:Z21"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="AB20:AB21"/>
@@ -7098,6 +7087,15 @@
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="Q22:S23"/>
     <mergeCell ref="Q25:S26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
     <mergeCell ref="T37:Y37"/>
     <mergeCell ref="T29:Y29"/>
     <mergeCell ref="T30:Y30"/>
@@ -7198,8 +7196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AF45"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="C3" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7313,22 +7311,22 @@
       </c>
       <c r="O6" s="73"/>
       <c r="P6" s="123" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="123"/>
       <c r="R6" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116" t="s">
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119" t="s">
         <v>247</v>
       </c>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="22"/>
@@ -7360,16 +7358,16 @@
       <c r="R7" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116" t="s">
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119" t="s">
         <v>248</v>
       </c>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="22"/>
@@ -7398,7 +7396,9 @@
       <c r="O8" s="73"/>
       <c r="P8" s="123"/>
       <c r="Q8" s="123"/>
-      <c r="R8" s="122"/>
+      <c r="R8" s="122" t="s">
+        <v>184</v>
+      </c>
       <c r="S8" s="122"/>
       <c r="T8" s="122"/>
       <c r="U8" s="125" t="s">
@@ -7558,7 +7558,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="87"/>
       <c r="F13" s="87"/>
@@ -7566,7 +7566,7 @@
       <c r="H13" s="87"/>
       <c r="I13" s="87"/>
       <c r="J13" s="124" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K13" s="124"/>
       <c r="L13" s="124"/>
@@ -7576,27 +7576,26 @@
       </c>
       <c r="O13" s="73"/>
       <c r="P13" s="123" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="123"/>
       <c r="R13" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116" t="s">
-        <v>253</v>
-      </c>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="116"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119" t="s">
+        <v>252</v>
+      </c>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="22"/>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C14" s="46">
@@ -7609,7 +7608,7 @@
       <c r="H14" s="87"/>
       <c r="I14" s="87"/>
       <c r="J14" s="124" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K14" s="124"/>
       <c r="L14" s="124"/>
@@ -7623,16 +7622,16 @@
       <c r="R14" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116" t="s">
-        <v>256</v>
-      </c>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="116"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119" t="s">
+        <v>255</v>
+      </c>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="22"/>
@@ -7650,7 +7649,7 @@
       <c r="H15" s="87"/>
       <c r="I15" s="87"/>
       <c r="J15" s="124" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K15" s="124"/>
       <c r="L15" s="124"/>
@@ -7664,16 +7663,16 @@
       <c r="R15" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116" t="s">
-        <v>257</v>
-      </c>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="116"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119" t="s">
+        <v>256</v>
+      </c>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="119"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="22"/>
@@ -7716,7 +7715,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E17" s="87"/>
       <c r="F17" s="87"/>
@@ -7724,7 +7723,7 @@
       <c r="H17" s="87"/>
       <c r="I17" s="87"/>
       <c r="J17" s="127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K17" s="127"/>
       <c r="L17" s="127"/>
@@ -7734,7 +7733,7 @@
       </c>
       <c r="O17" s="73"/>
       <c r="P17" s="123" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="123"/>
       <c r="R17" s="126" t="s">
@@ -7743,7 +7742,7 @@
       <c r="S17" s="126"/>
       <c r="T17" s="126"/>
       <c r="U17" s="73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V17" s="73"/>
       <c r="W17" s="73"/>
@@ -7778,7 +7777,7 @@
       <c r="S18" s="126"/>
       <c r="T18" s="126"/>
       <c r="U18" s="73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V18" s="73"/>
       <c r="W18" s="73"/>
@@ -7802,7 +7801,7 @@
       <c r="H19" s="87"/>
       <c r="I19" s="87"/>
       <c r="J19" s="69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K19" s="69"/>
       <c r="L19" s="69"/>
@@ -7818,14 +7817,14 @@
       </c>
       <c r="S19" s="122"/>
       <c r="T19" s="122"/>
-      <c r="U19" s="116" t="s">
-        <v>264</v>
-      </c>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="116"/>
+      <c r="U19" s="119" t="s">
+        <v>263</v>
+      </c>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="119"/>
       <c r="AA19" s="68"/>
       <c r="AB19" s="67"/>
       <c r="AC19" s="67"/>
@@ -7876,7 +7875,7 @@
       <c r="H21" s="87"/>
       <c r="I21" s="87"/>
       <c r="J21" s="124" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K21" s="124"/>
       <c r="L21" s="124"/>
@@ -7886,7 +7885,7 @@
       </c>
       <c r="O21" s="73"/>
       <c r="P21" s="123" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q21" s="123"/>
       <c r="R21" s="73" t="s">
@@ -7895,7 +7894,7 @@
       <c r="S21" s="73"/>
       <c r="T21" s="73"/>
       <c r="U21" s="125" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V21" s="125"/>
       <c r="W21" s="125"/>
@@ -7919,7 +7918,7 @@
       <c r="H22" s="87"/>
       <c r="I22" s="87"/>
       <c r="J22" s="124" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K22" s="124"/>
       <c r="L22" s="124"/>
@@ -7930,19 +7929,19 @@
       <c r="O22" s="73"/>
       <c r="P22" s="123"/>
       <c r="Q22" s="123"/>
-      <c r="R22" s="116" t="s">
+      <c r="R22" s="119" t="s">
         <v>184</v>
       </c>
-      <c r="S22" s="116"/>
-      <c r="T22" s="116"/>
-      <c r="U22" s="116" t="s">
-        <v>269</v>
-      </c>
-      <c r="V22" s="116"/>
-      <c r="W22" s="116"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="116"/>
-      <c r="Z22" s="116"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119" t="s">
+        <v>268</v>
+      </c>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="119"/>
+      <c r="Z22" s="119"/>
       <c r="AA22" s="22"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -8123,7 +8122,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
+      <c r="P28" s="8"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
